--- a/spark-cv/data/pubs.xlsx
+++ b/spark-cv/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spark-brc_gits\spark-brc.github.io\spark-cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seonggyu.park/Documents/spark_gits/spark-web/public/spark-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376FF413-9EBE-4526-8CE7-0FA9F142266C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C08276-60CC-6249-B58F-507EBDAC9293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59610" yWindow="5355" windowWidth="38745" windowHeight="17775" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
+    <workbookView xWindow="18580" yWindow="-31220" windowWidth="38000" windowHeight="30960" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="384">
   <si>
     <t>authors</t>
   </si>
@@ -1120,6 +1120,72 @@
   </si>
   <si>
     <t>tool</t>
+  </si>
+  <si>
+    <t>Integrating machine learning for enhanced wildfire severity prediction: A study in the Upper Colorado River basin.</t>
+  </si>
+  <si>
+    <t>10.1016/j.scitotenv.2024.175914</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.1016/j.scitotenv.2024.175914</t>
+  </si>
+  <si>
+    <t>Han, H., Abitew, T.A., Bazrkar, H., Park, S., and Jeong, J.</t>
+  </si>
+  <si>
+    <t>Bazrkar, M.H., Han, H., Abitew, T., Park, S., Zamani, N., and Jeong, J.</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>10.3390/atmos15121505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application of an Ensemble Stationary-Based Category-Based Scoring Support Vector Regression to Improve Drought Prediction in the Upper Colorado River Basin. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/atmos15121505</t>
+  </si>
+  <si>
+    <t>Park, S., Suarez, D., Glesson, T., and Jeong, J.</t>
+  </si>
+  <si>
+    <t>XWULQW'SELU WATERSHED SWAT-MODFLOW MODEL VALIDATION REPORT</t>
+  </si>
+  <si>
+    <t>BREC Report No. 24-01. #PO-094550</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jeong, J. and Park, S.</t>
+  </si>
+  <si>
+    <t>Development of a Carbon dynamics model for predicting GHGs emission and sequestration in croplands</t>
+  </si>
+  <si>
+    <t>BREC Report No. 24-02. #M2400956</t>
+  </si>
+  <si>
+    <t>Park, S., Jeong, J., Bailey, R., Kim, H., Hong, Y., and Kim, K.</t>
+  </si>
+  <si>
+    <t>July, 2024</t>
+  </si>
+  <si>
+    <t>Assessment of Spatial and Temporal Variability of Mercury Transport in the Gumu Watershed</t>
+  </si>
+  <si>
+    <t>2024 International SWAT Conference</t>
+  </si>
+  <si>
+    <t>Strasbourg, France</t>
+  </si>
+  <si>
+    <t>Park, S., Jeong, J., and Jeffrey, A.</t>
+  </si>
+  <si>
+    <t>Introduction to modeling practices for predicting Carbon dynamics and GHG Emissions in croplands</t>
   </si>
 </sst>
 </file>
@@ -1351,9 +1417,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1391,7 +1457,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1497,7 +1563,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1639,7 +1705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1647,39 +1713,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
-  <dimension ref="A1:Y94"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="30.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2"/>
     <col min="5" max="5" width="35.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" style="2"/>
-    <col min="11" max="11" width="35.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="35.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="26" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="11" style="2"/>
-    <col min="16" max="16" width="14.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="11" style="2"/>
-    <col min="18" max="18" width="15.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="2" customWidth="1"/>
     <col min="20" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="31.5">
+    <row r="1" spans="1:25" ht="34">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1756,7 +1822,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="47.25">
+    <row r="2" spans="1:25" ht="85">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1764,29 +1830,29 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="D2" s="1">
         <v>2024</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="G2" s="1">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1">
-        <v>104289</v>
+        <v>1505</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1800,7 +1866,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="47.25">
+    <row r="3" spans="1:25" ht="51">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1808,29 +1874,29 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D3" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1">
-        <v>169</v>
+        <v>952</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1">
-        <v>105832</v>
+        <v>175914</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>354</v>
+        <v>363</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1844,7 +1910,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="47.25">
+    <row r="4" spans="1:25" ht="51">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1852,29 +1918,29 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D4" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G4" s="1">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>104289</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1888,7 +1954,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="47.25">
+    <row r="5" spans="1:25" ht="51">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1896,29 +1962,29 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="D5" s="1">
         <v>2023</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="G5" s="1">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1">
-        <v>105723</v>
+        <v>105832</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1932,7 +1998,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="63">
+    <row r="6" spans="1:25" ht="51">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1940,29 +2006,29 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="D6" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="G6" s="1">
-        <v>81</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>531</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1976,7 +2042,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="63">
+    <row r="7" spans="1:25" ht="51">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1984,27 +2050,29 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="D7" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="G7" s="1">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>105723</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2018,7 +2086,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="47.25">
+    <row r="8" spans="1:25" ht="68">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2026,27 +2094,29 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="D8" s="1">
         <v>2022</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="G8" s="1">
-        <v>610</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>531</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -2060,7 +2130,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="47.25">
+    <row r="9" spans="1:25" ht="68">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2068,29 +2138,27 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="D9" s="1">
         <v>2022</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G9" s="1">
-        <v>606</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="1">
-        <v>127449</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>279</v>
+        <v>146</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2104,7 +2172,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="47.25">
+    <row r="10" spans="1:25" ht="51">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2112,28 +2180,27 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="D10" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>129</v>
+        <v>272</v>
       </c>
       <c r="G10" s="1">
-        <v>134</v>
-      </c>
-      <c r="I10" s="17">
-        <v>105093</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>130</v>
+        <v>305</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2143,8 +2210,11 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" ht="78.75">
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" ht="68">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2152,29 +2222,29 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c r="D11" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>133</v>
+        <v>276</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="G11" s="1">
-        <v>32</v>
+        <v>606</v>
       </c>
       <c r="H11" s="17"/>
-      <c r="I11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>135</v>
+      <c r="I11" s="1">
+        <v>127449</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2184,8 +2254,11 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" ht="94.5">
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" ht="68">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2193,28 +2266,28 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D12" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>139</v>
+        <v>2021</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G12" s="1">
-        <v>745</v>
+        <v>134</v>
       </c>
       <c r="I12" s="17">
-        <v>140933</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>141</v>
+        <v>105093</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2225,7 +2298,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="63">
+    <row r="13" spans="1:25" ht="85">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2233,29 +2306,29 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D13" s="1">
         <v>2020</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G13" s="1">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H13" s="17"/>
-      <c r="I13" s="1">
-        <v>503</v>
+      <c r="I13" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>148</v>
+        <v>135</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2266,7 +2339,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="63">
+    <row r="14" spans="1:25" ht="102">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2274,28 +2347,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D14" s="1">
         <v>2020</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>149</v>
+      <c r="E14" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G14" s="1">
-        <v>126</v>
+        <v>745</v>
       </c>
       <c r="I14" s="17">
-        <v>104660</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>152</v>
+        <v>140933</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2306,7 +2379,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="63">
+    <row r="15" spans="1:25" ht="68">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2314,28 +2387,29 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D15" s="1">
         <v>2020</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G15" s="1">
-        <v>706</v>
-      </c>
-      <c r="I15" s="17">
-        <v>135702</v>
+        <v>10</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="1">
+        <v>503</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2346,7 +2420,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="47.25">
+    <row r="16" spans="1:25" ht="68">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2354,28 +2428,28 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="G16" s="1">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="I16" s="17">
-        <v>100260</v>
+        <v>104660</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2386,7 +2460,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="63">
+    <row r="17" spans="1:19" ht="68">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2394,29 +2468,28 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D17" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G17" s="1">
-        <v>11</v>
-      </c>
-      <c r="H17" s="17">
-        <v>1681</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>706</v>
+      </c>
+      <c r="I17" s="17">
+        <v>135702</v>
+      </c>
       <c r="J17" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2427,7 +2500,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="78.75">
+    <row r="18" spans="1:19" ht="51">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -2435,29 +2508,28 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D18" s="1">
         <v>2019</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9</v>
+      </c>
+      <c r="I18" s="17">
+        <v>100260</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2468,7 +2540,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="47.25">
+    <row r="19" spans="1:19" ht="68">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -2476,29 +2548,29 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D19" s="1">
         <v>2019</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G19" s="1">
-        <v>111</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="12" t="s">
-        <v>182</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H19" s="17">
+        <v>1681</v>
+      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2509,7 +2581,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="63">
+    <row r="20" spans="1:19" ht="85">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -2517,29 +2589,29 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D20" s="1">
         <v>2019</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="1">
-        <v>64</v>
+        <v>169</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="12" t="s">
-        <v>177</v>
+      <c r="I20" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2550,246 +2622,256 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" s="16" customFormat="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-    </row>
-    <row r="22" spans="1:19" s="16" customFormat="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-    </row>
-    <row r="23" spans="1:19" ht="63">
-      <c r="A23" s="1" t="s">
+    <row r="21" spans="1:19" ht="51">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" s="1">
+        <v>111</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" ht="68">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="1">
+        <v>64</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" s="16" customFormat="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+    </row>
+    <row r="24" spans="1:19" s="16" customFormat="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+    </row>
+    <row r="25" spans="1:19" ht="85">
+      <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:19" s="23" customFormat="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-    </row>
-    <row r="25" spans="1:19" s="25" customFormat="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-    </row>
-    <row r="26" spans="1:19" s="27" customFormat="1">
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-    </row>
-    <row r="27" spans="1:19" s="19" customFormat="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-    </row>
-    <row r="28" spans="1:19" ht="110.25">
-      <c r="A28" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="63">
-      <c r="A29" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" ht="63">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" s="23" customFormat="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+    </row>
+    <row r="27" spans="1:19" s="25" customFormat="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+    </row>
+    <row r="28" spans="1:19" s="27" customFormat="1">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+    </row>
+    <row r="29" spans="1:19" s="19" customFormat="1">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="1:19" ht="136">
       <c r="A30" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D30" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2799,53 +2881,69 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="S30" s="1"/>
-    </row>
-    <row r="31" spans="1:19" s="19" customFormat="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="18"/>
-    </row>
-    <row r="32" spans="1:19" ht="43.5">
+      <c r="R30" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="85">
+      <c r="A31" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" ht="85">
       <c r="A32" s="1" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>357</v>
+        <v>255</v>
       </c>
       <c r="D32" s="1">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>358</v>
+        <v>254</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2855,63 +2953,53 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="6"/>
+      <c r="R32" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="47.25">
-      <c r="A33" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="1:19" ht="47.25">
+    <row r="33" spans="1:19" s="19" customFormat="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="18"/>
+    </row>
+    <row r="34" spans="1:19" ht="61">
       <c r="A34" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="D34" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2921,30 +3009,30 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>321</v>
+        <v>376</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="3"/>
+      <c r="R34" s="6"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" ht="43.5">
+    <row r="35" spans="1:19" ht="46">
       <c r="A35" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B35" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>299</v>
+        <v>371</v>
       </c>
       <c r="D35" s="1">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>297</v>
+        <v>372</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2954,30 +3042,30 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>298</v>
+        <v>373</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="3"/>
+      <c r="R35" s="6"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="43.5">
+    <row r="36" spans="1:19" ht="61">
       <c r="A36" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B36" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>294</v>
+        <v>357</v>
       </c>
       <c r="D36" s="1">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>296</v>
+        <v>358</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2987,21 +3075,31 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>295</v>
+        <v>359</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="3"/>
+      <c r="R36" s="6"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="7"/>
+    <row r="37" spans="1:19" ht="51">
+      <c r="A37" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3009,7 +3107,9 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -3017,275 +3117,251 @@
       <c r="R37" s="3"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" s="19" customFormat="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="18"/>
-    </row>
-    <row r="39" spans="1:19" ht="63">
+    <row r="38" spans="1:19" ht="51">
+      <c r="A38" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" ht="46">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>299</v>
       </c>
       <c r="D39" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>2022</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="R39" s="3"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" ht="94.5">
+    <row r="40" spans="1:19" ht="46">
       <c r="A40" s="1" t="s">
-        <v>13</v>
+        <v>293</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>29</v>
+        <v>294</v>
       </c>
       <c r="D40" s="1">
-        <v>2011</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>57</v>
+        <v>2021</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="R40" s="3"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" s="19" customFormat="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
+    <row r="41" spans="1:19">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" ht="94.5">
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" s="19" customFormat="1">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="18"/>
+    </row>
+    <row r="43" spans="1:19" ht="85">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>337</v>
+        <v>28</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2020</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>338</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="N43" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R43" s="1"/>
+      <c r="J43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" ht="94.5">
+    <row r="44" spans="1:19" ht="119">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>337</v>
+        <v>29</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2011</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>340</v>
+        <v>57</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="N44" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q44" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="L44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" ht="47.25">
-      <c r="A45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="1">
-        <v>3</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="N45" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="O45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-    </row>
-    <row r="46" spans="1:19" ht="63">
-      <c r="A46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="1">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>311</v>
-      </c>
+    <row r="45" spans="1:19" s="19" customFormat="1">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="1"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3293,37 +3369,28 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="O46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q46" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" ht="110.25">
+    <row r="47" spans="1:19" ht="85">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>306</v>
+        <v>383</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -3332,15 +3399,14 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="O47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="Q47" s="1" t="b">
         <v>0</v>
@@ -3348,21 +3414,21 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" ht="63">
+    <row r="48" spans="1:19" ht="85">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>283</v>
+        <v>377</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>284</v>
+        <v>378</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>274</v>
+        <v>379</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -3371,39 +3437,36 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>285</v>
+        <v>380</v>
       </c>
       <c r="O48" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>287</v>
+        <v>381</v>
       </c>
       <c r="Q48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>286</v>
-      </c>
+      <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="63">
+    <row r="49" spans="1:23" ht="119">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -3412,39 +3475,36 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="O49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="Q49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>292</v>
-      </c>
+      <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="63">
+    <row r="50" spans="1:23" ht="119">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B50" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -3453,824 +3513,850 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="O50" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="Q50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="R50" s="3" t="s">
-        <v>289</v>
-      </c>
+      <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="94.5">
+    <row r="51" spans="1:23" ht="51">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>189</v>
+        <v>334</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="O51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W51" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="63">
+        <v>335</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="N51" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="O51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:23" ht="85">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B52" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>197</v>
+        <v>313</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="O52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R52" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="78.75">
+        <v>311</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:23" ht="119">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B53" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>198</v>
+        <v>310</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q53" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="78.75">
+        <v>306</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="O53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:23" ht="68">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B54" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>198</v>
+        <v>283</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q54" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="78.75">
+        <v>274</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:23" ht="68">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B55" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>198</v>
+        <v>291</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q55" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="78.75">
+        <v>290</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R55" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:23" ht="68">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B56" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>198</v>
+        <v>325</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q56" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="78.75">
+        <v>288</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="1:23" ht="102">
       <c r="A57" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B57" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="O57" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="Q57" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" ht="63">
+      <c r="W57" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="85">
       <c r="A58" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B58" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="O58" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="Q58" s="2" t="b">
         <v>0</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="78.75">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="85">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B59" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="O59" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="Q59" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="78.75">
+    <row r="60" spans="1:23" ht="85">
       <c r="A60" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B60" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="O60" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="Q60" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="157.5">
+    <row r="61" spans="1:23" ht="85">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="O61" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="Q61" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R61" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="157.5">
+    </row>
+    <row r="62" spans="1:23" ht="85">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B62" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="O62" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="Q62" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R62" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="157.5">
+    </row>
+    <row r="63" spans="1:23" ht="85">
       <c r="A63" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B63" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="O63" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="Q63" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R63" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="63">
+    </row>
+    <row r="64" spans="1:23" ht="68">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="O64" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q64" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" ht="78.75">
+      <c r="R64" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="85">
       <c r="A65" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B65" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="O65" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="Q65" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="47.25">
+    <row r="66" spans="1:19" ht="85">
       <c r="A66" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B66" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="O66" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="Q66" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="110.25">
+    <row r="67" spans="1:19" ht="170">
       <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B67" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="O67" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="Q67" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" ht="78.75">
+      <c r="R67" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="170">
       <c r="A68" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="O68" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="Q68" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" ht="78.75">
+      <c r="R68" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="170">
       <c r="A69" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B69" s="1">
+        <v>23</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="O69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="68">
+      <c r="A70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="1">
+        <v>24</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="E70" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="O70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q70" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="85">
+      <c r="A71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="1">
+        <v>25</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="O71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q71" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="51">
+      <c r="A72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="1">
+        <v>26</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q72" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="119">
+      <c r="A73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="1">
+        <v>27</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q73" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="85">
+      <c r="A74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="1">
+        <v>28</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q74" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="85">
+      <c r="A75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="1">
+        <v>29</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="N69" s="2" t="s">
+      <c r="N75" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="O69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P69" s="2" t="s">
+      <c r="O75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P75" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="Q69" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" s="19" customFormat="1">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="E70" s="18"/>
-    </row>
-    <row r="71" spans="1:19" ht="94.5">
-      <c r="A71" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S71" s="1"/>
-    </row>
-    <row r="72" spans="1:19" ht="63">
-      <c r="A72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B72" s="1">
-        <v>2</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="1">
-        <v>2013</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S72" s="1"/>
-    </row>
-    <row r="73" spans="1:19" ht="78.75">
-      <c r="A73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" s="1">
-        <v>3</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S73" s="1"/>
-    </row>
-    <row r="74" spans="1:19" ht="78.75">
-      <c r="A74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" s="1">
-        <v>4</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S74" s="1"/>
-    </row>
-    <row r="75" spans="1:19" ht="94.5">
-      <c r="A75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" s="1">
-        <v>5</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S75" s="1"/>
-    </row>
-    <row r="76" spans="1:19" ht="94.5">
-      <c r="A76" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="1">
-        <v>6</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D76" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S76" s="1"/>
-    </row>
-    <row r="77" spans="1:19" ht="94.5">
+      <c r="Q75" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" s="19" customFormat="1">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="E76" s="18"/>
+    </row>
+    <row r="77" spans="1:19" ht="102">
       <c r="A77" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B77" s="1">
-        <v>7</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D77" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>61</v>
+        <v>2014</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -4279,7 +4365,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="9" t="s">
+      <c r="M77" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="1"/>
@@ -4287,25 +4373,25 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:19" ht="94.5">
+    <row r="78" spans="1:19" ht="68">
       <c r="A78" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B78" s="1">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="D78" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>62</v>
+        <v>2013</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -4314,33 +4400,33 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="9" t="s">
-        <v>38</v>
+      <c r="M78" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" ht="94.5">
+    <row r="79" spans="1:19" ht="85">
       <c r="A79" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B79" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D79" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -4357,25 +4443,25 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:19" ht="78.75">
+    <row r="80" spans="1:19" ht="85">
       <c r="A80" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B80" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D80" s="1">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -4392,413 +4478,624 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="1:22" ht="119">
+      <c r="A81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="1">
+        <v>5</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S81" s="1"/>
+    </row>
+    <row r="82" spans="1:22" ht="102">
+      <c r="A82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="1">
+        <v>6</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="1:22" ht="102">
+      <c r="A83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="1">
+        <v>7</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="1:22" ht="102">
+      <c r="A84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="1">
+        <v>8</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="1:22" ht="102">
+      <c r="A85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="1">
+        <v>9</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="1:22" ht="85">
+      <c r="A86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="1">
+        <v>10</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S80" s="1"/>
-    </row>
-    <row r="81" spans="1:22" ht="220.5">
-      <c r="A81" s="1" t="s">
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="1:22" ht="255">
+      <c r="A87" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B87" s="1">
         <v>1</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T81" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="63">
-      <c r="A82" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B82" s="1">
-        <v>2</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T82" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" ht="63">
-      <c r="A83" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B83" s="1">
-        <v>3</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" ht="78.75">
-      <c r="A84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B84" s="1">
-        <v>4</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" ht="78.75">
-      <c r="A85" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="1">
-        <v>1</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D85" s="2">
-        <v>2020</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S85" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="U85" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="V85" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" ht="63">
-      <c r="A86" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="1">
-        <v>2</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D86" s="2">
-        <v>2019</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="S86" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="U86" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" ht="47.25">
-      <c r="A87" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" s="1">
-        <v>3</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="2">
-        <v>2018</v>
+      <c r="D87" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="S87" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="U87" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" ht="78.75">
+        <v>67</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="68">
       <c r="A88" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B88" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="2">
-        <v>2018</v>
+      <c r="D88" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="S88" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="V88" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" ht="47.25">
+        <v>71</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="85">
       <c r="A89" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B89" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="2">
-        <v>2016</v>
+      <c r="D89" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S89" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="U89" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" ht="63">
+        <v>76</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="85">
       <c r="A90" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B90" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="2">
-        <v>2015</v>
+      <c r="D90" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U90" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" ht="94.5">
+        <v>80</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="85">
       <c r="A91" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>100</v>
+      <c r="C91" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D91" s="2">
-        <v>2018</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="R91" s="2" t="s">
-        <v>116</v>
+        <v>2020</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="U91" s="10" t="s">
-        <v>103</v>
+        <v>87</v>
+      </c>
+      <c r="U91" s="10">
+        <v>0.1</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" ht="78.75">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="68">
       <c r="A92" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B92" s="1">
         <v>2</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>105</v>
+      <c r="C92" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="D92" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="R92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="U92" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="V92" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" ht="94.5">
+        <v>120</v>
+      </c>
+      <c r="U92" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="68">
       <c r="A93" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="R93" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" ht="47.25">
+        <v>88</v>
+      </c>
+      <c r="U93" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="85">
       <c r="A94" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B94" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V94" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="68">
+      <c r="A95" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U95" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="68">
+      <c r="A96" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="1">
+        <v>6</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U96" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="102">
+      <c r="A97" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U97" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="85">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U98" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="102">
+      <c r="A99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="2">
         <v>2019</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E99" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" ht="51">
+      <c r="A100" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E100" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="R94" s="2" t="s">
+      <c r="R100" s="2" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B12:K22">
-    <sortCondition ref="B12:B22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:K24">
+    <sortCondition ref="B14:B24"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J39" r:id="rId1" display="https://doi.org/10.4324/9780429260919" xr:uid="{1DDAA8A2-3DE9-D743-A79F-D2981E5790DA}"/>
-    <hyperlink ref="K10" r:id="rId2" xr:uid="{BA548D61-5286-450E-B5D8-9CA662E78DF1}"/>
-    <hyperlink ref="K11" r:id="rId3" xr:uid="{7D4967E5-40CC-4954-8327-6A772AA2A957}"/>
-    <hyperlink ref="K12" r:id="rId4" xr:uid="{12F12244-BD30-4FBD-A236-09F2ECD3778F}"/>
-    <hyperlink ref="K13" r:id="rId5" xr:uid="{0BEA2CC2-508D-4C8C-AA81-4F63390D1A26}"/>
-    <hyperlink ref="K14" r:id="rId6" xr:uid="{8B83B70B-0708-4C66-82E7-DCE04D32C18D}"/>
-    <hyperlink ref="K15" r:id="rId7" xr:uid="{7882D75E-15F6-4B33-B047-F71E5823344F}"/>
-    <hyperlink ref="K16" r:id="rId8" xr:uid="{F940BC28-68A7-4220-9F3C-2CE3B1862ABB}"/>
-    <hyperlink ref="K17" r:id="rId9" xr:uid="{1DA1A95D-7850-4DFF-B869-CDDB7D086AE6}"/>
-    <hyperlink ref="K18" r:id="rId10" xr:uid="{5D3260F5-3897-4531-BC12-BB45E34B149A}"/>
-    <hyperlink ref="K20" r:id="rId11" xr:uid="{DAC6D232-E160-403D-AA2A-0066D71FD892}"/>
-    <hyperlink ref="K19" r:id="rId12" xr:uid="{7A6F013C-478F-4A54-B4B9-C9B5D6702479}"/>
-    <hyperlink ref="R28" r:id="rId13" xr:uid="{2D7B0E01-5671-4FB6-9267-9700EF4AACF9}"/>
-    <hyperlink ref="S28" r:id="rId14" xr:uid="{DB40CF40-6052-4684-B7F4-3903CF78FA52}"/>
-    <hyperlink ref="K29" r:id="rId15" xr:uid="{B4F8683C-58D8-49FD-BB54-98C67A4D0B8C}"/>
-    <hyperlink ref="R30" r:id="rId16" xr:uid="{37F06173-A112-43F7-92B2-74C697F2B8BC}"/>
-    <hyperlink ref="W51" r:id="rId17" xr:uid="{1B126FCA-8446-4E08-8C87-760F2A8F12CC}"/>
-    <hyperlink ref="R63" r:id="rId18" xr:uid="{ED9D7A6D-68ED-445E-ABD4-2AAC6A999A6E}"/>
-    <hyperlink ref="R62" r:id="rId19" xr:uid="{27B729C7-E9EA-4A89-873C-907E005DD138}"/>
-    <hyperlink ref="R61" r:id="rId20" xr:uid="{8581B660-5FBA-471F-A8F1-069DB8EB782D}"/>
-    <hyperlink ref="R58" r:id="rId21" xr:uid="{5F0EB864-8594-40CD-A4CE-D2F32BC318DF}"/>
-    <hyperlink ref="R52" r:id="rId22" xr:uid="{F74DCF66-DE4A-4CD6-9326-62F58C8D0088}"/>
-    <hyperlink ref="K9" r:id="rId23" xr:uid="{A49517BD-EE25-403D-8EAA-84E43D781FEB}"/>
-    <hyperlink ref="J9" r:id="rId24" display="https://doi.org/10.1016/j.jhydrol.2022.127449" xr:uid="{8D3E252A-DBD2-45D2-897D-6F2D25B0714D}"/>
-    <hyperlink ref="R48" r:id="rId25" xr:uid="{C2C2BED0-6A13-4819-91BC-2F9C49F5489B}"/>
-    <hyperlink ref="R50" r:id="rId26" xr:uid="{B29AA9BF-EE4A-45A5-B36A-E4ACCB6B75EE}"/>
-    <hyperlink ref="R49" r:id="rId27" xr:uid="{9710E869-58A6-4F5F-A7E8-57CE38A208D7}"/>
-    <hyperlink ref="K8" r:id="rId28" xr:uid="{B79FF0E4-1AE9-46AE-8E9A-0F2A844277F7}"/>
-    <hyperlink ref="K7" r:id="rId29" xr:uid="{2CFBDD80-2C8E-4C0C-BF45-FF5B99D9AF51}"/>
-    <hyperlink ref="K5" r:id="rId30" xr:uid="{2A765B15-3B0B-4BAF-95AD-4FC851D8343D}"/>
-    <hyperlink ref="K6" r:id="rId31" xr:uid="{7D61F22C-7D64-491C-BA97-44A28B404208}"/>
-    <hyperlink ref="K4" r:id="rId32" xr:uid="{824F3703-A805-4B51-BA57-B640C8BF73D3}"/>
-    <hyperlink ref="K2" r:id="rId33" xr:uid="{E5CFF721-38D6-4448-93C3-951FBBF29F8D}"/>
-    <hyperlink ref="K3" r:id="rId34" xr:uid="{E1B605ED-C040-417B-B4C4-B1FC7C626113}"/>
+    <hyperlink ref="J43" r:id="rId1" display="https://doi.org/10.4324/9780429260919" xr:uid="{1DDAA8A2-3DE9-D743-A79F-D2981E5790DA}"/>
+    <hyperlink ref="K12" r:id="rId2" xr:uid="{BA548D61-5286-450E-B5D8-9CA662E78DF1}"/>
+    <hyperlink ref="K13" r:id="rId3" xr:uid="{7D4967E5-40CC-4954-8327-6A772AA2A957}"/>
+    <hyperlink ref="K14" r:id="rId4" xr:uid="{12F12244-BD30-4FBD-A236-09F2ECD3778F}"/>
+    <hyperlink ref="K15" r:id="rId5" xr:uid="{0BEA2CC2-508D-4C8C-AA81-4F63390D1A26}"/>
+    <hyperlink ref="K16" r:id="rId6" xr:uid="{8B83B70B-0708-4C66-82E7-DCE04D32C18D}"/>
+    <hyperlink ref="K17" r:id="rId7" xr:uid="{7882D75E-15F6-4B33-B047-F71E5823344F}"/>
+    <hyperlink ref="K18" r:id="rId8" xr:uid="{F940BC28-68A7-4220-9F3C-2CE3B1862ABB}"/>
+    <hyperlink ref="K19" r:id="rId9" xr:uid="{1DA1A95D-7850-4DFF-B869-CDDB7D086AE6}"/>
+    <hyperlink ref="K20" r:id="rId10" xr:uid="{5D3260F5-3897-4531-BC12-BB45E34B149A}"/>
+    <hyperlink ref="K22" r:id="rId11" xr:uid="{DAC6D232-E160-403D-AA2A-0066D71FD892}"/>
+    <hyperlink ref="K21" r:id="rId12" xr:uid="{7A6F013C-478F-4A54-B4B9-C9B5D6702479}"/>
+    <hyperlink ref="R30" r:id="rId13" xr:uid="{2D7B0E01-5671-4FB6-9267-9700EF4AACF9}"/>
+    <hyperlink ref="S30" r:id="rId14" xr:uid="{DB40CF40-6052-4684-B7F4-3903CF78FA52}"/>
+    <hyperlink ref="K31" r:id="rId15" xr:uid="{B4F8683C-58D8-49FD-BB54-98C67A4D0B8C}"/>
+    <hyperlink ref="R32" r:id="rId16" xr:uid="{37F06173-A112-43F7-92B2-74C697F2B8BC}"/>
+    <hyperlink ref="W57" r:id="rId17" xr:uid="{1B126FCA-8446-4E08-8C87-760F2A8F12CC}"/>
+    <hyperlink ref="R69" r:id="rId18" xr:uid="{ED9D7A6D-68ED-445E-ABD4-2AAC6A999A6E}"/>
+    <hyperlink ref="R68" r:id="rId19" xr:uid="{27B729C7-E9EA-4A89-873C-907E005DD138}"/>
+    <hyperlink ref="R67" r:id="rId20" xr:uid="{8581B660-5FBA-471F-A8F1-069DB8EB782D}"/>
+    <hyperlink ref="R64" r:id="rId21" xr:uid="{5F0EB864-8594-40CD-A4CE-D2F32BC318DF}"/>
+    <hyperlink ref="R58" r:id="rId22" xr:uid="{F74DCF66-DE4A-4CD6-9326-62F58C8D0088}"/>
+    <hyperlink ref="K11" r:id="rId23" xr:uid="{A49517BD-EE25-403D-8EAA-84E43D781FEB}"/>
+    <hyperlink ref="J11" r:id="rId24" display="https://doi.org/10.1016/j.jhydrol.2022.127449" xr:uid="{8D3E252A-DBD2-45D2-897D-6F2D25B0714D}"/>
+    <hyperlink ref="R54" r:id="rId25" xr:uid="{C2C2BED0-6A13-4819-91BC-2F9C49F5489B}"/>
+    <hyperlink ref="R56" r:id="rId26" xr:uid="{B29AA9BF-EE4A-45A5-B36A-E4ACCB6B75EE}"/>
+    <hyperlink ref="R55" r:id="rId27" xr:uid="{9710E869-58A6-4F5F-A7E8-57CE38A208D7}"/>
+    <hyperlink ref="K10" r:id="rId28" xr:uid="{B79FF0E4-1AE9-46AE-8E9A-0F2A844277F7}"/>
+    <hyperlink ref="K9" r:id="rId29" xr:uid="{2CFBDD80-2C8E-4C0C-BF45-FF5B99D9AF51}"/>
+    <hyperlink ref="K7" r:id="rId30" xr:uid="{2A765B15-3B0B-4BAF-95AD-4FC851D8343D}"/>
+    <hyperlink ref="K8" r:id="rId31" xr:uid="{7D61F22C-7D64-491C-BA97-44A28B404208}"/>
+    <hyperlink ref="K6" r:id="rId32" xr:uid="{824F3703-A805-4B51-BA57-B640C8BF73D3}"/>
+    <hyperlink ref="K4" r:id="rId33" xr:uid="{E5CFF721-38D6-4448-93C3-951FBBF29F8D}"/>
+    <hyperlink ref="K5" r:id="rId34" xr:uid="{E1B605ED-C040-417B-B4C4-B1FC7C626113}"/>
+    <hyperlink ref="K2" r:id="rId35" xr:uid="{010600D1-2BBC-ED47-B823-FD451BF3D204}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/spark-cv/data/pubs.xlsx
+++ b/spark-cv/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seonggyu.park/Documents/spark_gits/spark-web/public/spark-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C08276-60CC-6249-B58F-507EBDAC9293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC75618-A696-574B-8C41-A406B998FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18580" yWindow="-31220" windowWidth="38000" windowHeight="30960" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21060" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="388">
   <si>
     <t>authors</t>
   </si>
@@ -1182,10 +1182,22 @@
     <t>Strasbourg, France</t>
   </si>
   <si>
-    <t>Park, S., Jeong, J., and Jeffrey, A.</t>
-  </si>
-  <si>
     <t>Introduction to modeling practices for predicting Carbon dynamics and GHG Emissions in croplands</t>
+  </si>
+  <si>
+    <t>Enhancement of the SWAT+ model for simulating paddy rice cultivation and irrigation management in agricultural watersheds</t>
+  </si>
+  <si>
+    <t>Jeong, J., Arnold, J., Park, S., Sorando, R., Choi, S., and Kim, M.</t>
+  </si>
+  <si>
+    <t>10.1016/j.jhydrol.2025.133288</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jhydrol.2025.133288</t>
+  </si>
+  <si>
+    <t>Park, S., Jeong, J., and Arnold, J.</t>
   </si>
 </sst>
 </file>
@@ -1713,13 +1725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1822,7 +1834,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="85">
+    <row r="2" spans="1:25" ht="68">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1830,29 +1842,29 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="D2" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>367</v>
+        <v>272</v>
       </c>
       <c r="G2" s="1">
-        <v>15</v>
+        <v>659</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1">
-        <v>1505</v>
+        <v>133288</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1866,7 +1878,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="51">
+    <row r="3" spans="1:25" ht="85">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1874,29 +1886,29 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D3" s="1">
         <v>2024</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>140</v>
+        <v>367</v>
       </c>
       <c r="G3" s="1">
-        <v>952</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1">
-        <v>175914</v>
+        <v>1505</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1918,29 +1930,29 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="D4" s="1">
         <v>2024</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>348</v>
+        <v>140</v>
       </c>
       <c r="G4" s="1">
-        <v>261</v>
+        <v>952</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1">
-        <v>104289</v>
+        <v>175914</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>351</v>
+        <v>363</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1962,29 +1974,29 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D5" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="G5" s="1">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1">
-        <v>105832</v>
+        <v>104289</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2006,29 +2018,29 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="D6" s="1">
         <v>2023</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>347</v>
+        <v>129</v>
       </c>
       <c r="G6" s="1">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>105832</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -2050,29 +2062,29 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="D7" s="1">
         <v>2023</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>281</v>
+        <v>346</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>181</v>
+        <v>347</v>
       </c>
       <c r="G7" s="1">
-        <v>165</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
-        <v>105723</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2086,7 +2098,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="68">
+    <row r="8" spans="1:25" ht="51">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2094,29 +2106,29 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D8" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>326</v>
+        <v>181</v>
       </c>
       <c r="G8" s="1">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>531</v>
+        <v>105723</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -2138,27 +2150,29 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D9" s="1">
         <v>2022</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="G9" s="1">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>531</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -2172,7 +2186,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="51">
+    <row r="10" spans="1:25" ht="68">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2180,27 +2194,27 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="D10" s="1">
         <v>2022</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G10" s="1">
-        <v>610</v>
+        <v>146</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2214,7 +2228,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="68">
+    <row r="11" spans="1:25" ht="51">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2222,29 +2236,27 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D11" s="1">
         <v>2022</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>272</v>
       </c>
       <c r="G11" s="1">
-        <v>606</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="1">
-        <v>127449</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>279</v>
+        <v>610</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2266,28 +2278,29 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="D12" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>128</v>
+        <v>276</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>129</v>
+        <v>272</v>
       </c>
       <c r="G12" s="1">
-        <v>134</v>
-      </c>
-      <c r="I12" s="17">
-        <v>105093</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>130</v>
+        <v>606</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="1">
+        <v>127449</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2297,8 +2310,11 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" ht="85">
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" ht="68">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2306,29 +2322,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D13" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="1">
         <v>134</v>
       </c>
-      <c r="G13" s="1">
-        <v>32</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="4" t="s">
-        <v>138</v>
+      <c r="I13" s="17">
+        <v>105093</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2339,7 +2354,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="102">
+    <row r="14" spans="1:25" ht="85">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2347,28 +2362,29 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D14" s="1">
         <v>2020</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>139</v>
+      <c r="E14" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G14" s="1">
-        <v>745</v>
-      </c>
-      <c r="I14" s="17">
-        <v>140933</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>141</v>
+        <v>32</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2379,7 +2395,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="68">
+    <row r="15" spans="1:25" ht="102">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2387,29 +2403,28 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="1">
         <v>2020</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>143</v>
+      <c r="E15" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G15" s="1">
-        <v>10</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="1">
-        <v>503</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>148</v>
+        <v>745</v>
+      </c>
+      <c r="I15" s="17">
+        <v>140933</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2428,28 +2443,29 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D16" s="1">
         <v>2020</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G16" s="1">
-        <v>126</v>
-      </c>
-      <c r="I16" s="17">
-        <v>104660</v>
+        <v>10</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="1">
+        <v>503</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2468,28 +2484,28 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1">
         <v>2020</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="G17" s="1">
-        <v>706</v>
+        <v>126</v>
       </c>
       <c r="I17" s="17">
-        <v>135702</v>
+        <v>104660</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2500,7 +2516,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="51">
+    <row r="18" spans="1:19" ht="68">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -2508,28 +2524,28 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D18" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G18" s="1">
-        <v>9</v>
+        <v>706</v>
       </c>
       <c r="I18" s="17">
-        <v>100260</v>
+        <v>135702</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2540,7 +2556,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="68">
+    <row r="19" spans="1:19" ht="51">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -2548,29 +2564,28 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D19" s="1">
         <v>2019</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G19" s="1">
-        <v>11</v>
-      </c>
-      <c r="H19" s="17">
-        <v>1681</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="I19" s="17">
+        <v>100260</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2581,7 +2596,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="85">
+    <row r="20" spans="1:19" ht="68">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -2589,29 +2604,29 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="D20" s="1">
         <v>2019</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="4" t="s">
-        <v>173</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G20" s="1">
+        <v>11</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1681</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2622,7 +2637,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="51">
+    <row r="21" spans="1:19" ht="85">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -2630,29 +2645,29 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="D21" s="1">
         <v>2019</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G21" s="1">
-        <v>111</v>
+        <v>169</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="12" t="s">
-        <v>182</v>
+      <c r="I21" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2663,7 +2678,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="68">
+    <row r="22" spans="1:19" ht="51">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2671,29 +2686,29 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D22" s="1">
         <v>2019</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G22" s="1">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="12" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2704,26 +2719,46 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" s="16" customFormat="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
+    <row r="23" spans="1:19" ht="68">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="1">
+        <v>64</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" s="16" customFormat="1">
       <c r="A24" s="13"/>
@@ -2746,211 +2781,199 @@
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
     </row>
-    <row r="25" spans="1:19" ht="85">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:19" s="16" customFormat="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+    </row>
+    <row r="26" spans="1:19" ht="85">
+      <c r="A26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" s="23" customFormat="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-    </row>
-    <row r="27" spans="1:19" s="25" customFormat="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-    </row>
-    <row r="28" spans="1:19" s="27" customFormat="1">
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-    </row>
-    <row r="29" spans="1:19" s="19" customFormat="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-    </row>
-    <row r="30" spans="1:19" ht="136">
-      <c r="A30" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="85">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" s="23" customFormat="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+    </row>
+    <row r="28" spans="1:19" s="25" customFormat="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+    </row>
+    <row r="29" spans="1:19" s="27" customFormat="1">
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" s="19" customFormat="1">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+    </row>
+    <row r="31" spans="1:19" ht="136">
       <c r="A31" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D31" s="1">
         <v>2019</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="3" t="s">
-        <v>262</v>
-      </c>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="R31" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="85">
       <c r="A32" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D32" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
         <v>259</v>
@@ -2959,80 +2982,80 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="3" t="s">
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" ht="85">
+      <c r="A33" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" s="19" customFormat="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="18"/>
-    </row>
-    <row r="34" spans="1:19" ht="61">
-      <c r="A34" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2024</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" ht="46">
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" s="19" customFormat="1">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="18"/>
+    </row>
+    <row r="35" spans="1:19" ht="61">
       <c r="A35" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D35" s="1">
         <v>2024</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3042,7 +3065,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3051,21 +3074,21 @@
       <c r="R35" s="6"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="61">
+    <row r="36" spans="1:19" ht="46">
       <c r="A36" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="D36" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3075,7 +3098,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3084,21 +3107,21 @@
       <c r="R36" s="6"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" ht="51">
+    <row r="37" spans="1:19" ht="61">
       <c r="A37" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B37" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="D37" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3108,13 +3131,13 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="3"/>
+      <c r="R37" s="6"/>
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19" ht="51">
@@ -3122,7 +3145,7 @@
         <v>293</v>
       </c>
       <c r="B38" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>322</v>
@@ -3131,7 +3154,7 @@
         <v>2022</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3141,7 +3164,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3150,21 +3173,21 @@
       <c r="R38" s="3"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" ht="46">
+    <row r="39" spans="1:19" ht="51">
       <c r="A39" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B39" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="D39" s="1">
         <v>2022</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -3174,7 +3197,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3188,16 +3211,16 @@
         <v>293</v>
       </c>
       <c r="B40" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D40" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -3207,7 +3230,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -3216,12 +3239,22 @@
       <c r="R40" s="3"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="7"/>
+    <row r="41" spans="1:19" ht="46">
+      <c r="A41" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -3229,7 +3262,9 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -3237,161 +3272,152 @@
       <c r="R41" s="3"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" s="19" customFormat="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="18"/>
-    </row>
-    <row r="43" spans="1:19" ht="85">
-      <c r="A43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S43" s="1"/>
-    </row>
-    <row r="44" spans="1:19" ht="119">
+    <row r="42" spans="1:19">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" s="19" customFormat="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="18"/>
+    </row>
+    <row r="44" spans="1:19" ht="85">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="L44" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
+      <c r="R44" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" s="19" customFormat="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="1"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-    </row>
-    <row r="47" spans="1:19" ht="85">
-      <c r="A47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>383</v>
-      </c>
+    <row r="45" spans="1:19" ht="119">
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" s="19" customFormat="1">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="1"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -3399,18 +3425,10 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="N47" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="O47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q47" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
@@ -3419,16 +3437,16 @@
         <v>22</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -3452,21 +3470,21 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="119">
+    <row r="49" spans="1:23" ht="85">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -3476,13 +3494,13 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="N49" s="1" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="O49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="Q49" s="1" t="b">
         <v>0</v>
@@ -3495,16 +3513,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -3528,21 +3546,21 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="51">
+    <row r="51" spans="1:23" ht="119">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -3552,13 +3570,13 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="N51" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="O51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q51" s="1" t="b">
         <v>0</v>
@@ -3566,21 +3584,21 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="85">
+    <row r="52" spans="1:23" ht="51">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B52" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3589,15 +3607,14 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="O52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="Q52" s="1" t="b">
         <v>0</v>
@@ -3605,21 +3622,21 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="119">
+    <row r="53" spans="1:23" ht="85">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B53" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -3630,13 +3647,13 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="O53" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q53" s="1" t="b">
         <v>0</v>
@@ -3644,21 +3661,21 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="68">
+    <row r="54" spans="1:23" ht="119">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B54" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -3669,20 +3686,18 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="O54" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="Q54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>286</v>
-      </c>
+      <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
     <row r="55" spans="1:23" ht="68">
@@ -3690,16 +3705,16 @@
         <v>22</v>
       </c>
       <c r="B55" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>284</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3722,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="S55" s="1"/>
     </row>
@@ -3731,16 +3746,16 @@
         <v>22</v>
       </c>
       <c r="B56" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>284</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -3763,72 +3778,81 @@
         <v>0</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="102">
+    <row r="57" spans="1:23" ht="68">
       <c r="A57" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B57" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>189</v>
+        <v>325</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="O57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W57" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="85">
+        <v>288</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="1:23" ht="102">
       <c r="A58" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B58" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O58" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q58" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R58" s="6" t="s">
-        <v>270</v>
+      <c r="W58" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="85">
@@ -3836,28 +3860,31 @@
         <v>22</v>
       </c>
       <c r="B59" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O59" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="Q59" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="85">
@@ -3865,16 +3892,16 @@
         <v>22</v>
       </c>
       <c r="B60" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>196</v>
@@ -3894,16 +3921,16 @@
         <v>22</v>
       </c>
       <c r="B61" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>196</v>
@@ -3923,16 +3950,16 @@
         <v>22</v>
       </c>
       <c r="B62" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>196</v>
@@ -3952,16 +3979,16 @@
         <v>22</v>
       </c>
       <c r="B63" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>196</v>
@@ -3976,65 +4003,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="68">
+    <row r="64" spans="1:23" ht="85">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="O64" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="Q64" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R64" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="85">
+    </row>
+    <row r="65" spans="1:19" ht="68">
       <c r="A65" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B65" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O65" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q65" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="R65" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="85">
@@ -4042,16 +4069,16 @@
         <v>22</v>
       </c>
       <c r="B66" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>215</v>
@@ -4066,36 +4093,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="170">
+    <row r="67" spans="1:19" ht="85">
       <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B67" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O67" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q67" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="R67" s="6" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="170">
@@ -4103,16 +4127,16 @@
         <v>22</v>
       </c>
       <c r="B68" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>221</v>
@@ -4127,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="170">
@@ -4135,16 +4159,16 @@
         <v>22</v>
       </c>
       <c r="B69" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>221</v>
@@ -4159,149 +4183,152 @@
         <v>0</v>
       </c>
       <c r="R69" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="68">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="170">
       <c r="A70" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B70" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O70" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="Q70" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" ht="85">
+      <c r="R70" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="68">
       <c r="A71" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B71" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O71" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="Q71" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="51">
+    <row r="72" spans="1:19" ht="85">
       <c r="A72" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B72" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O72" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q72" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="119">
+    <row r="73" spans="1:19" ht="51">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B73" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="O73" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="Q73" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="85">
+    <row r="74" spans="1:19" ht="119">
       <c r="A74" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B74" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O74" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q74" s="2" t="b">
         <v>0</v>
@@ -4312,16 +4339,16 @@
         <v>22</v>
       </c>
       <c r="B75" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>240</v>
@@ -4336,62 +4363,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" s="19" customFormat="1">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="E76" s="18"/>
-    </row>
-    <row r="77" spans="1:19" ht="102">
-      <c r="A77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" s="1">
-        <v>1</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S77" s="1"/>
-    </row>
-    <row r="78" spans="1:19" ht="68">
+    <row r="76" spans="1:19" ht="85">
+      <c r="A76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="1">
+        <v>29</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q76" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="19" customFormat="1">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="E77" s="18"/>
+    </row>
+    <row r="78" spans="1:19" ht="102">
       <c r="A78" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D78" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -4401,32 +4422,32 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" ht="85">
+    <row r="79" spans="1:19" ht="68">
       <c r="A79" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B79" s="1">
-        <v>3</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D79" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>58</v>
+        <v>2013</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -4435,15 +4456,15 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="9" t="s">
-        <v>38</v>
+      <c r="M79" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="S79" s="1"/>
     </row>
@@ -4452,16 +4473,16 @@
         <v>32</v>
       </c>
       <c r="B80" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D80" s="1">
         <v>2012</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -4478,25 +4499,25 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:22" ht="119">
+    <row r="81" spans="1:22" ht="85">
       <c r="A81" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B81" s="1">
-        <v>5</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>55</v>
+        <v>4</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D81" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>40</v>
+        <v>2012</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -4513,25 +4534,25 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:22" ht="102">
+    <row r="82" spans="1:22" ht="119">
       <c r="A82" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B82" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D82" s="1">
         <v>2010</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -4548,7 +4569,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="S82" s="1"/>
     </row>
@@ -4557,16 +4578,16 @@
         <v>32</v>
       </c>
       <c r="B83" s="1">
-        <v>7</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D83" s="1">
         <v>2010</v>
       </c>
-      <c r="E83" s="8" t="s">
-        <v>61</v>
+      <c r="E83" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -4583,7 +4604,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S83" s="1"/>
     </row>
@@ -4592,16 +4613,16 @@
         <v>32</v>
       </c>
       <c r="B84" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D84" s="1">
         <v>2010</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -4618,7 +4639,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S84" s="1"/>
     </row>
@@ -4627,16 +4648,16 @@
         <v>32</v>
       </c>
       <c r="B85" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D85" s="1">
         <v>2010</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -4653,25 +4674,25 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="1:22" ht="85">
+    <row r="86" spans="1:22" ht="102">
       <c r="A86" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B86" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D86" s="1">
         <v>2010</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -4688,95 +4709,101 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="1:22" ht="85">
+      <c r="A87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="1">
+        <v>10</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S86" s="1"/>
-    </row>
-    <row r="87" spans="1:22" ht="255">
-      <c r="A87" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="1">
-        <v>1</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T87" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" ht="68">
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:22" ht="255">
       <c r="A88" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="Q88" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" ht="85">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="68">
       <c r="A89" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B89" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="Q89" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:22" ht="85">
@@ -4784,77 +4811,83 @@
         <v>65</v>
       </c>
       <c r="B90" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="Q90" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="85">
       <c r="A91" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B91" s="1">
+        <v>4</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q91" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="2">
-        <v>2020</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S91" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="U91" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="V91" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" ht="68">
+      <c r="T91" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="85">
       <c r="A92" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B92" s="1">
-        <v>2</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>126</v>
+        <v>1</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D92" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="S92" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="U92" s="2" t="s">
-        <v>121</v>
+        <v>87</v>
+      </c>
+      <c r="U92" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="V92" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:22" ht="68">
@@ -4862,30 +4895,30 @@
         <v>83</v>
       </c>
       <c r="B93" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="D93" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="U93" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" ht="85">
+        <v>120</v>
+      </c>
+      <c r="U93" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="68">
       <c r="A94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B94" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>8</v>
@@ -4894,39 +4927,39 @@
         <v>2018</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U94" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="V94" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" ht="68">
+        <v>88</v>
+      </c>
+      <c r="U94" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="85">
       <c r="A95" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B95" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="U95" s="10" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="U95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V95" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="68">
@@ -4934,111 +4967,111 @@
         <v>83</v>
       </c>
       <c r="B96" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="U96" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="102">
+    <row r="97" spans="1:22" ht="68">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B97" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2">
-        <v>2018</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>116</v>
+        <v>2015</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="U97" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="V97" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" ht="85">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="102">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B98" s="1">
-        <v>2</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="D98" s="2">
         <v>2018</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U98" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="85">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E99" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="R98" s="2" t="s">
+      <c r="R99" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="S98" s="2" t="s">
+      <c r="S99" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="U98" s="10" t="s">
+      <c r="U99" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="V98" s="2" t="s">
+      <c r="V99" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="102">
-      <c r="A99" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="2">
-        <v>2019</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="R99" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S99" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" ht="51">
+    <row r="100" spans="1:22" ht="102">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B100" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>8</v>
@@ -5046,56 +5079,80 @@
       <c r="D100" s="2">
         <v>2019</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="R100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="51">
+      <c r="A101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="R100" s="2" t="s">
+      <c r="R101" s="2" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:K24">
-    <sortCondition ref="B14:B24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:K25">
+    <sortCondition ref="B15:B25"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J43" r:id="rId1" display="https://doi.org/10.4324/9780429260919" xr:uid="{1DDAA8A2-3DE9-D743-A79F-D2981E5790DA}"/>
-    <hyperlink ref="K12" r:id="rId2" xr:uid="{BA548D61-5286-450E-B5D8-9CA662E78DF1}"/>
-    <hyperlink ref="K13" r:id="rId3" xr:uid="{7D4967E5-40CC-4954-8327-6A772AA2A957}"/>
-    <hyperlink ref="K14" r:id="rId4" xr:uid="{12F12244-BD30-4FBD-A236-09F2ECD3778F}"/>
-    <hyperlink ref="K15" r:id="rId5" xr:uid="{0BEA2CC2-508D-4C8C-AA81-4F63390D1A26}"/>
-    <hyperlink ref="K16" r:id="rId6" xr:uid="{8B83B70B-0708-4C66-82E7-DCE04D32C18D}"/>
-    <hyperlink ref="K17" r:id="rId7" xr:uid="{7882D75E-15F6-4B33-B047-F71E5823344F}"/>
-    <hyperlink ref="K18" r:id="rId8" xr:uid="{F940BC28-68A7-4220-9F3C-2CE3B1862ABB}"/>
-    <hyperlink ref="K19" r:id="rId9" xr:uid="{1DA1A95D-7850-4DFF-B869-CDDB7D086AE6}"/>
-    <hyperlink ref="K20" r:id="rId10" xr:uid="{5D3260F5-3897-4531-BC12-BB45E34B149A}"/>
-    <hyperlink ref="K22" r:id="rId11" xr:uid="{DAC6D232-E160-403D-AA2A-0066D71FD892}"/>
-    <hyperlink ref="K21" r:id="rId12" xr:uid="{7A6F013C-478F-4A54-B4B9-C9B5D6702479}"/>
-    <hyperlink ref="R30" r:id="rId13" xr:uid="{2D7B0E01-5671-4FB6-9267-9700EF4AACF9}"/>
-    <hyperlink ref="S30" r:id="rId14" xr:uid="{DB40CF40-6052-4684-B7F4-3903CF78FA52}"/>
-    <hyperlink ref="K31" r:id="rId15" xr:uid="{B4F8683C-58D8-49FD-BB54-98C67A4D0B8C}"/>
-    <hyperlink ref="R32" r:id="rId16" xr:uid="{37F06173-A112-43F7-92B2-74C697F2B8BC}"/>
-    <hyperlink ref="W57" r:id="rId17" xr:uid="{1B126FCA-8446-4E08-8C87-760F2A8F12CC}"/>
-    <hyperlink ref="R69" r:id="rId18" xr:uid="{ED9D7A6D-68ED-445E-ABD4-2AAC6A999A6E}"/>
-    <hyperlink ref="R68" r:id="rId19" xr:uid="{27B729C7-E9EA-4A89-873C-907E005DD138}"/>
-    <hyperlink ref="R67" r:id="rId20" xr:uid="{8581B660-5FBA-471F-A8F1-069DB8EB782D}"/>
-    <hyperlink ref="R64" r:id="rId21" xr:uid="{5F0EB864-8594-40CD-A4CE-D2F32BC318DF}"/>
-    <hyperlink ref="R58" r:id="rId22" xr:uid="{F74DCF66-DE4A-4CD6-9326-62F58C8D0088}"/>
-    <hyperlink ref="K11" r:id="rId23" xr:uid="{A49517BD-EE25-403D-8EAA-84E43D781FEB}"/>
-    <hyperlink ref="J11" r:id="rId24" display="https://doi.org/10.1016/j.jhydrol.2022.127449" xr:uid="{8D3E252A-DBD2-45D2-897D-6F2D25B0714D}"/>
-    <hyperlink ref="R54" r:id="rId25" xr:uid="{C2C2BED0-6A13-4819-91BC-2F9C49F5489B}"/>
-    <hyperlink ref="R56" r:id="rId26" xr:uid="{B29AA9BF-EE4A-45A5-B36A-E4ACCB6B75EE}"/>
-    <hyperlink ref="R55" r:id="rId27" xr:uid="{9710E869-58A6-4F5F-A7E8-57CE38A208D7}"/>
-    <hyperlink ref="K10" r:id="rId28" xr:uid="{B79FF0E4-1AE9-46AE-8E9A-0F2A844277F7}"/>
-    <hyperlink ref="K9" r:id="rId29" xr:uid="{2CFBDD80-2C8E-4C0C-BF45-FF5B99D9AF51}"/>
-    <hyperlink ref="K7" r:id="rId30" xr:uid="{2A765B15-3B0B-4BAF-95AD-4FC851D8343D}"/>
-    <hyperlink ref="K8" r:id="rId31" xr:uid="{7D61F22C-7D64-491C-BA97-44A28B404208}"/>
-    <hyperlink ref="K6" r:id="rId32" xr:uid="{824F3703-A805-4B51-BA57-B640C8BF73D3}"/>
-    <hyperlink ref="K4" r:id="rId33" xr:uid="{E5CFF721-38D6-4448-93C3-951FBBF29F8D}"/>
-    <hyperlink ref="K5" r:id="rId34" xr:uid="{E1B605ED-C040-417B-B4C4-B1FC7C626113}"/>
-    <hyperlink ref="K2" r:id="rId35" xr:uid="{010600D1-2BBC-ED47-B823-FD451BF3D204}"/>
+    <hyperlink ref="J44" r:id="rId1" display="https://doi.org/10.4324/9780429260919" xr:uid="{1DDAA8A2-3DE9-D743-A79F-D2981E5790DA}"/>
+    <hyperlink ref="K13" r:id="rId2" xr:uid="{BA548D61-5286-450E-B5D8-9CA662E78DF1}"/>
+    <hyperlink ref="K14" r:id="rId3" xr:uid="{7D4967E5-40CC-4954-8327-6A772AA2A957}"/>
+    <hyperlink ref="K15" r:id="rId4" xr:uid="{12F12244-BD30-4FBD-A236-09F2ECD3778F}"/>
+    <hyperlink ref="K16" r:id="rId5" xr:uid="{0BEA2CC2-508D-4C8C-AA81-4F63390D1A26}"/>
+    <hyperlink ref="K17" r:id="rId6" xr:uid="{8B83B70B-0708-4C66-82E7-DCE04D32C18D}"/>
+    <hyperlink ref="K18" r:id="rId7" xr:uid="{7882D75E-15F6-4B33-B047-F71E5823344F}"/>
+    <hyperlink ref="K19" r:id="rId8" xr:uid="{F940BC28-68A7-4220-9F3C-2CE3B1862ABB}"/>
+    <hyperlink ref="K20" r:id="rId9" xr:uid="{1DA1A95D-7850-4DFF-B869-CDDB7D086AE6}"/>
+    <hyperlink ref="K21" r:id="rId10" xr:uid="{5D3260F5-3897-4531-BC12-BB45E34B149A}"/>
+    <hyperlink ref="K23" r:id="rId11" xr:uid="{DAC6D232-E160-403D-AA2A-0066D71FD892}"/>
+    <hyperlink ref="K22" r:id="rId12" xr:uid="{7A6F013C-478F-4A54-B4B9-C9B5D6702479}"/>
+    <hyperlink ref="R31" r:id="rId13" xr:uid="{2D7B0E01-5671-4FB6-9267-9700EF4AACF9}"/>
+    <hyperlink ref="S31" r:id="rId14" xr:uid="{DB40CF40-6052-4684-B7F4-3903CF78FA52}"/>
+    <hyperlink ref="K32" r:id="rId15" xr:uid="{B4F8683C-58D8-49FD-BB54-98C67A4D0B8C}"/>
+    <hyperlink ref="R33" r:id="rId16" xr:uid="{37F06173-A112-43F7-92B2-74C697F2B8BC}"/>
+    <hyperlink ref="W58" r:id="rId17" xr:uid="{1B126FCA-8446-4E08-8C87-760F2A8F12CC}"/>
+    <hyperlink ref="R70" r:id="rId18" xr:uid="{ED9D7A6D-68ED-445E-ABD4-2AAC6A999A6E}"/>
+    <hyperlink ref="R69" r:id="rId19" xr:uid="{27B729C7-E9EA-4A89-873C-907E005DD138}"/>
+    <hyperlink ref="R68" r:id="rId20" xr:uid="{8581B660-5FBA-471F-A8F1-069DB8EB782D}"/>
+    <hyperlink ref="R65" r:id="rId21" xr:uid="{5F0EB864-8594-40CD-A4CE-D2F32BC318DF}"/>
+    <hyperlink ref="R59" r:id="rId22" xr:uid="{F74DCF66-DE4A-4CD6-9326-62F58C8D0088}"/>
+    <hyperlink ref="K12" r:id="rId23" xr:uid="{A49517BD-EE25-403D-8EAA-84E43D781FEB}"/>
+    <hyperlink ref="J12" r:id="rId24" display="https://doi.org/10.1016/j.jhydrol.2022.127449" xr:uid="{8D3E252A-DBD2-45D2-897D-6F2D25B0714D}"/>
+    <hyperlink ref="R55" r:id="rId25" xr:uid="{C2C2BED0-6A13-4819-91BC-2F9C49F5489B}"/>
+    <hyperlink ref="R57" r:id="rId26" xr:uid="{B29AA9BF-EE4A-45A5-B36A-E4ACCB6B75EE}"/>
+    <hyperlink ref="R56" r:id="rId27" xr:uid="{9710E869-58A6-4F5F-A7E8-57CE38A208D7}"/>
+    <hyperlink ref="K11" r:id="rId28" xr:uid="{B79FF0E4-1AE9-46AE-8E9A-0F2A844277F7}"/>
+    <hyperlink ref="K10" r:id="rId29" xr:uid="{2CFBDD80-2C8E-4C0C-BF45-FF5B99D9AF51}"/>
+    <hyperlink ref="K8" r:id="rId30" xr:uid="{2A765B15-3B0B-4BAF-95AD-4FC851D8343D}"/>
+    <hyperlink ref="K9" r:id="rId31" xr:uid="{7D61F22C-7D64-491C-BA97-44A28B404208}"/>
+    <hyperlink ref="K7" r:id="rId32" xr:uid="{824F3703-A805-4B51-BA57-B640C8BF73D3}"/>
+    <hyperlink ref="K5" r:id="rId33" xr:uid="{E5CFF721-38D6-4448-93C3-951FBBF29F8D}"/>
+    <hyperlink ref="K6" r:id="rId34" xr:uid="{E1B605ED-C040-417B-B4C4-B1FC7C626113}"/>
+    <hyperlink ref="K3" r:id="rId35" xr:uid="{010600D1-2BBC-ED47-B823-FD451BF3D204}"/>
+    <hyperlink ref="K2" r:id="rId36" xr:uid="{00771DC6-BDA8-E948-8810-7573A19F1264}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/spark-cv/data/pubs.xlsx
+++ b/spark-cv/data/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seonggyu.park/Documents/spark_gits/spark-web/public/spark-cv/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spark\Documents\spark-webs\spark-web\public\spark-cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC75618-A696-574B-8C41-A406B998FAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1769D006-FA25-4FB4-882C-58664DF273E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21060" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9662CE4C-DEF8-8749-ABE3-ABD9C0AA9720}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="393">
   <si>
     <t>authors</t>
   </si>
@@ -1198,6 +1198,21 @@
   </si>
   <si>
     <t>Park, S., Jeong, J., and Arnold, J.</t>
+  </si>
+  <si>
+    <t>Water, Impact, and Sustainability Estimator (WISE) for Predicting and Adapting to Drought and Flood Risks in Rice Cultivation Under Climate Change</t>
+  </si>
+  <si>
+    <t>Park, S., Chawanda, C., Bawa, A., Jeong, J., and Jun, S.</t>
+  </si>
+  <si>
+    <t>June, 2025</t>
+  </si>
+  <si>
+    <t>2025 International SWAT Conference</t>
+  </si>
+  <si>
+    <t>Jeju, South Korea</t>
   </si>
 </sst>
 </file>
@@ -1725,39 +1740,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF752879-4E41-3C4A-A16F-F1C105CAD07B}">
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="30.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2"/>
     <col min="5" max="5" width="35.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" style="2"/>
-    <col min="11" max="11" width="35.1640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="35.19921875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" style="2" customWidth="1"/>
     <col min="13" max="13" width="26" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" style="2" customWidth="1"/>
     <col min="15" max="15" width="11" style="2"/>
-    <col min="16" max="16" width="14.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.296875" style="2" customWidth="1"/>
     <col min="17" max="17" width="11" style="2"/>
-    <col min="18" max="18" width="15.83203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.796875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.296875" style="2" customWidth="1"/>
     <col min="20" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="34">
+    <row r="1" spans="1:25" ht="31.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1834,7 +1849,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="68">
+    <row r="2" spans="1:25" ht="62.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1878,7 +1893,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="85">
+    <row r="3" spans="1:25" ht="78">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1922,7 +1937,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="51">
+    <row r="4" spans="1:25" ht="46.8">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1966,7 +1981,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="51">
+    <row r="5" spans="1:25" ht="46.8">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2010,7 +2025,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="51">
+    <row r="6" spans="1:25" ht="46.8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2054,7 +2069,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="51">
+    <row r="7" spans="1:25" ht="46.8">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2098,7 +2113,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="51">
+    <row r="8" spans="1:25" ht="46.8">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2142,7 +2157,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="68">
+    <row r="9" spans="1:25" ht="62.4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2186,7 +2201,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="68">
+    <row r="10" spans="1:25" ht="62.4">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2228,7 +2243,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="51">
+    <row r="11" spans="1:25" ht="46.8">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2270,7 +2285,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="68">
+    <row r="12" spans="1:25" ht="62.4">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2314,7 +2329,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="68">
+    <row r="13" spans="1:25" ht="62.4">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2354,7 +2369,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="85">
+    <row r="14" spans="1:25" ht="78">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2395,7 +2410,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="102">
+    <row r="15" spans="1:25" ht="93.6">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2435,7 +2450,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="68">
+    <row r="16" spans="1:25" ht="62.4">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -2476,7 +2491,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="68">
+    <row r="17" spans="1:19" ht="62.4">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -2516,7 +2531,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="68">
+    <row r="18" spans="1:19" ht="62.4">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -2556,7 +2571,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="51">
+    <row r="19" spans="1:19" ht="46.8">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -2596,7 +2611,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="68">
+    <row r="20" spans="1:19" ht="62.4">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -2637,7 +2652,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="85">
+    <row r="21" spans="1:19" ht="78">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -2678,7 +2693,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="51">
+    <row r="22" spans="1:19" ht="46.8">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2719,7 +2734,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" ht="68">
+    <row r="23" spans="1:19" ht="62.4">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2802,7 +2817,7 @@
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
     </row>
-    <row r="26" spans="1:19" ht="85">
+    <row r="26" spans="1:19" ht="78">
       <c r="A26" s="1" t="s">
         <v>123</v>
       </c>
@@ -2913,7 +2928,7 @@
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
     </row>
-    <row r="31" spans="1:19" ht="136">
+    <row r="31" spans="1:19" ht="124.8">
       <c r="A31" s="1" t="s">
         <v>251</v>
       </c>
@@ -2950,7 +2965,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="85">
+    <row r="32" spans="1:19" ht="78">
       <c r="A32" s="1" t="s">
         <v>251</v>
       </c>
@@ -2985,7 +3000,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="85">
+    <row r="33" spans="1:19" ht="78">
       <c r="A33" s="1" t="s">
         <v>251</v>
       </c>
@@ -3041,7 +3056,7 @@
       <c r="R34" s="21"/>
       <c r="S34" s="18"/>
     </row>
-    <row r="35" spans="1:19" ht="61">
+    <row r="35" spans="1:19" ht="42">
       <c r="A35" s="1" t="s">
         <v>293</v>
       </c>
@@ -3074,7 +3089,7 @@
       <c r="R35" s="6"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="46">
+    <row r="36" spans="1:19" ht="42">
       <c r="A36" s="1" t="s">
         <v>293</v>
       </c>
@@ -3107,7 +3122,7 @@
       <c r="R36" s="6"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" ht="61">
+    <row r="37" spans="1:19" ht="42">
       <c r="A37" s="1" t="s">
         <v>293</v>
       </c>
@@ -3140,7 +3155,7 @@
       <c r="R37" s="6"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" ht="51">
+    <row r="38" spans="1:19" ht="46.8">
       <c r="A38" s="1" t="s">
         <v>293</v>
       </c>
@@ -3173,7 +3188,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" ht="51">
+    <row r="39" spans="1:19" ht="46.8">
       <c r="A39" s="1" t="s">
         <v>293</v>
       </c>
@@ -3206,7 +3221,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" ht="46">
+    <row r="40" spans="1:19" ht="42">
       <c r="A40" s="1" t="s">
         <v>293</v>
       </c>
@@ -3239,7 +3254,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="46">
+    <row r="41" spans="1:19" ht="42">
       <c r="A41" s="1" t="s">
         <v>293</v>
       </c>
@@ -3314,7 +3329,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="18"/>
     </row>
-    <row r="44" spans="1:19" ht="85">
+    <row r="44" spans="1:19" ht="78">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -3355,7 +3370,7 @@
       </c>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" ht="119">
+    <row r="45" spans="1:19" ht="109.2">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -3432,7 +3447,7 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" ht="85">
+    <row r="48" spans="1:19" ht="78">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
@@ -3440,13 +3455,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -3456,13 +3471,13 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="O48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="Q48" s="1" t="b">
         <v>0</v>
@@ -3470,7 +3485,7 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="85">
+    <row r="49" spans="1:23" ht="78">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -3478,13 +3493,13 @@
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -3508,7 +3523,7 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="119">
+    <row r="50" spans="1:23" ht="78">
       <c r="A50" s="1" t="s">
         <v>22</v>
       </c>
@@ -3516,13 +3531,13 @@
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -3532,13 +3547,13 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="O50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="Q50" s="1" t="b">
         <v>0</v>
@@ -3546,7 +3561,7 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="119">
+    <row r="51" spans="1:23" ht="109.2">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -3554,13 +3569,13 @@
         <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>337</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -3584,7 +3599,7 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="51">
+    <row r="52" spans="1:23" ht="109.2">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -3592,13 +3607,13 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3608,13 +3623,13 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="O52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q52" s="1" t="b">
         <v>0</v>
@@ -3622,7 +3637,7 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="85">
+    <row r="53" spans="1:23" ht="46.8">
       <c r="A53" s="1" t="s">
         <v>22</v>
       </c>
@@ -3630,13 +3645,13 @@
         <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -3645,15 +3660,14 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="O53" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="Q53" s="1" t="b">
         <v>0</v>
@@ -3661,7 +3675,7 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="119">
+    <row r="54" spans="1:23" ht="78">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -3669,13 +3683,13 @@
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -3686,13 +3700,13 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="O54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q54" s="1" t="b">
         <v>0</v>
@@ -3700,7 +3714,7 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="68">
+    <row r="55" spans="1:23" ht="109.2">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -3708,13 +3722,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3725,23 +3739,21 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="O55" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="Q55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="R55" s="3" t="s">
-        <v>286</v>
-      </c>
+      <c r="R55" s="1"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="68">
+    <row r="56" spans="1:23" ht="62.4">
       <c r="A56" s="1" t="s">
         <v>22</v>
       </c>
@@ -3749,13 +3761,13 @@
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>284</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -3778,11 +3790,11 @@
         <v>0</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="68">
+    <row r="57" spans="1:23" ht="62.4">
       <c r="A57" s="1" t="s">
         <v>22</v>
       </c>
@@ -3790,13 +3802,13 @@
         <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>284</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -3819,11 +3831,11 @@
         <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="102">
+    <row r="58" spans="1:23" ht="62.4">
       <c r="A58" s="1" t="s">
         <v>22</v>
       </c>
@@ -3831,31 +3843,40 @@
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>189</v>
+        <v>325</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="O58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W58" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="85">
+        <v>288</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:23" ht="93.6">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -3863,31 +3884,31 @@
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O59" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q59" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R59" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="85">
+      <c r="W59" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="78">
       <c r="A60" s="1" t="s">
         <v>22</v>
       </c>
@@ -3895,28 +3916,31 @@
         <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O60" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="Q60" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" ht="85">
+      <c r="R60" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="78">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
@@ -3924,13 +3948,13 @@
         <v>14</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>196</v>
@@ -3945,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="85">
+    <row r="62" spans="1:23" ht="78">
       <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
@@ -3953,13 +3977,13 @@
         <v>15</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>196</v>
@@ -3974,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="85">
+    <row r="63" spans="1:23" ht="78">
       <c r="A63" s="1" t="s">
         <v>22</v>
       </c>
@@ -3982,13 +4006,13 @@
         <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>196</v>
@@ -4003,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="85">
+    <row r="64" spans="1:23" ht="78">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
@@ -4011,13 +4035,13 @@
         <v>17</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>196</v>
@@ -4032,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="68">
+    <row r="65" spans="1:19" ht="78">
       <c r="A65" s="1" t="s">
         <v>22</v>
       </c>
@@ -4040,31 +4064,28 @@
         <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="O65" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="Q65" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R65" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="85">
+    </row>
+    <row r="66" spans="1:19" ht="78">
       <c r="A66" s="1" t="s">
         <v>22</v>
       </c>
@@ -4072,28 +4093,31 @@
         <v>19</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O66" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q66" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" ht="85">
+      <c r="R66" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="78">
       <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
@@ -4101,13 +4125,13 @@
         <v>20</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>215</v>
@@ -4122,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="170">
+    <row r="68" spans="1:19" ht="78">
       <c r="A68" s="1" t="s">
         <v>22</v>
       </c>
@@ -4130,31 +4154,28 @@
         <v>21</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O68" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q68" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="R68" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="170">
+    </row>
+    <row r="69" spans="1:19" ht="156">
       <c r="A69" s="1" t="s">
         <v>22</v>
       </c>
@@ -4162,13 +4183,13 @@
         <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>221</v>
@@ -4183,10 +4204,10 @@
         <v>0</v>
       </c>
       <c r="R69" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="170">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="156">
       <c r="A70" s="1" t="s">
         <v>22</v>
       </c>
@@ -4194,13 +4215,13 @@
         <v>23</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>221</v>
@@ -4215,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="68">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="156">
       <c r="A71" s="1" t="s">
         <v>22</v>
       </c>
@@ -4226,28 +4247,31 @@
         <v>24</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O71" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="Q71" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" ht="85">
+      <c r="R71" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="62.4">
       <c r="A72" s="1" t="s">
         <v>22</v>
       </c>
@@ -4255,28 +4279,28 @@
         <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O72" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="Q72" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="51">
+    <row r="73" spans="1:19" ht="78">
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
@@ -4284,28 +4308,28 @@
         <v>26</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O73" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q73" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="119">
+    <row r="74" spans="1:19" ht="46.8">
       <c r="A74" s="1" t="s">
         <v>22</v>
       </c>
@@ -4313,28 +4337,28 @@
         <v>27</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="O74" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="Q74" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="85">
+    <row r="75" spans="1:19" ht="109.2">
       <c r="A75" s="1" t="s">
         <v>22</v>
       </c>
@@ -4342,28 +4366,28 @@
         <v>28</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O75" s="2" t="b">
         <v>0</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q75" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="85">
+    <row r="76" spans="1:19" ht="78">
       <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
@@ -4371,13 +4395,13 @@
         <v>29</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>240</v>
@@ -4392,62 +4416,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="19" customFormat="1">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="E77" s="18"/>
-    </row>
-    <row r="78" spans="1:19" ht="102">
-      <c r="A78" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="1">
-        <v>1</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D78" s="1">
-        <v>2014</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S78" s="1"/>
-    </row>
-    <row r="79" spans="1:19" ht="68">
+    <row r="77" spans="1:19" ht="78">
+      <c r="A77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" s="1">
+        <v>30</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q77" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" s="19" customFormat="1">
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="E78" s="18"/>
+    </row>
+    <row r="79" spans="1:19" ht="93.6">
       <c r="A79" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B79" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D79" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -4457,32 +4475,32 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:19" ht="85">
+    <row r="80" spans="1:19" ht="62.4">
       <c r="A80" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B80" s="1">
-        <v>3</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D80" s="1">
-        <v>2012</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>58</v>
+        <v>2013</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -4491,33 +4509,33 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="9" t="s">
-        <v>38</v>
+      <c r="M80" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:22" ht="85">
+    <row r="81" spans="1:22" ht="78">
       <c r="A81" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B81" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D81" s="1">
         <v>2012</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -4534,25 +4552,25 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:22" ht="119">
+    <row r="82" spans="1:22" ht="78">
       <c r="A82" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B82" s="1">
-        <v>5</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>55</v>
+        <v>4</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D82" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>40</v>
+        <v>2012</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -4569,25 +4587,25 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="1:22" ht="102">
+    <row r="83" spans="1:22" ht="109.2">
       <c r="A83" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B83" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D83" s="1">
         <v>2010</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -4604,25 +4622,25 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:22" ht="102">
+    <row r="84" spans="1:22" ht="93.6">
       <c r="A84" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B84" s="1">
-        <v>7</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D84" s="1">
         <v>2010</v>
       </c>
-      <c r="E84" s="8" t="s">
-        <v>61</v>
+      <c r="E84" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -4639,25 +4657,25 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:22" ht="102">
+    <row r="85" spans="1:22" ht="93.6">
       <c r="A85" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B85" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D85" s="1">
         <v>2010</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -4674,25 +4692,25 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="1:22" ht="102">
+    <row r="86" spans="1:22" ht="93.6">
       <c r="A86" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B86" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D86" s="1">
         <v>2010</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -4709,25 +4727,25 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:22" ht="85">
+    <row r="87" spans="1:22" ht="93.6">
       <c r="A87" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B87" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D87" s="1">
         <v>2010</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -4744,204 +4762,216 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:22" ht="78">
+      <c r="A88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="1">
+        <v>10</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2010</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S87" s="1"/>
-    </row>
-    <row r="88" spans="1:22" ht="255">
-      <c r="A88" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B88" s="1">
-        <v>1</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T88" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" ht="68">
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="1:22" ht="234">
       <c r="A89" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B89" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="Q89" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" ht="85">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="62.4">
       <c r="A90" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B90" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="Q90" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" ht="85">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="62.4">
       <c r="A91" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B91" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q91" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="78">
+      <c r="A92" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" s="1">
+        <v>4</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E92" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="N91" s="2" t="s">
+      <c r="N92" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P91" s="2" t="s">
+      <c r="P92" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q91" s="2" t="b">
+      <c r="Q92" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="T91" s="2" t="s">
+      <c r="T92" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="85">
-      <c r="A92" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2020</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S92" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="U92" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="V92" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" ht="68">
+    <row r="93" spans="1:22" ht="78">
       <c r="A93" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B93" s="1">
-        <v>2</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>126</v>
+        <v>1</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D93" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="U93" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" ht="68">
+        <v>87</v>
+      </c>
+      <c r="U93" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="V93" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="62.4">
       <c r="A94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B94" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="D94" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="U94" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" ht="85">
+        <v>120</v>
+      </c>
+      <c r="U94" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="62.4">
       <c r="A95" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B95" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>8</v>
@@ -4950,151 +4980,151 @@
         <v>2018</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U95" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="V95" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" ht="68">
+        <v>88</v>
+      </c>
+      <c r="U95" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="78">
       <c r="A96" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B96" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="U96" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" ht="68">
+        <v>92</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="62.4">
       <c r="A97" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B97" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="U97" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="102">
+    <row r="98" spans="1:22" ht="62.4">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2">
-        <v>2018</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="R98" s="2" t="s">
-        <v>116</v>
+        <v>2015</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="U98" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="V98" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" ht="85">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="93.6">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B99" s="1">
-        <v>2</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="D99" s="2">
         <v>2018</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U99" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="V99" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" ht="78">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E100" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="R99" s="2" t="s">
+      <c r="R100" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="S99" s="2" t="s">
+      <c r="S100" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="U99" s="10" t="s">
+      <c r="U100" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="V99" s="2" t="s">
+      <c r="V100" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="102">
-      <c r="A100" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100" s="1">
-        <v>1</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="2">
-        <v>2019</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="R100" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="S100" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" ht="51">
+    <row r="101" spans="1:22" ht="93.6">
       <c r="A101" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B101" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>8</v>
@@ -5102,10 +5132,33 @@
       <c r="D101" s="2">
         <v>2019</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="E101" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" ht="46.8">
+      <c r="A102" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="R101" s="2" t="s">
+      <c r="R102" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5131,17 +5184,17 @@
     <hyperlink ref="S31" r:id="rId14" xr:uid="{DB40CF40-6052-4684-B7F4-3903CF78FA52}"/>
     <hyperlink ref="K32" r:id="rId15" xr:uid="{B4F8683C-58D8-49FD-BB54-98C67A4D0B8C}"/>
     <hyperlink ref="R33" r:id="rId16" xr:uid="{37F06173-A112-43F7-92B2-74C697F2B8BC}"/>
-    <hyperlink ref="W58" r:id="rId17" xr:uid="{1B126FCA-8446-4E08-8C87-760F2A8F12CC}"/>
-    <hyperlink ref="R70" r:id="rId18" xr:uid="{ED9D7A6D-68ED-445E-ABD4-2AAC6A999A6E}"/>
-    <hyperlink ref="R69" r:id="rId19" xr:uid="{27B729C7-E9EA-4A89-873C-907E005DD138}"/>
-    <hyperlink ref="R68" r:id="rId20" xr:uid="{8581B660-5FBA-471F-A8F1-069DB8EB782D}"/>
-    <hyperlink ref="R65" r:id="rId21" xr:uid="{5F0EB864-8594-40CD-A4CE-D2F32BC318DF}"/>
-    <hyperlink ref="R59" r:id="rId22" xr:uid="{F74DCF66-DE4A-4CD6-9326-62F58C8D0088}"/>
+    <hyperlink ref="W59" r:id="rId17" xr:uid="{1B126FCA-8446-4E08-8C87-760F2A8F12CC}"/>
+    <hyperlink ref="R71" r:id="rId18" xr:uid="{ED9D7A6D-68ED-445E-ABD4-2AAC6A999A6E}"/>
+    <hyperlink ref="R70" r:id="rId19" xr:uid="{27B729C7-E9EA-4A89-873C-907E005DD138}"/>
+    <hyperlink ref="R69" r:id="rId20" xr:uid="{8581B660-5FBA-471F-A8F1-069DB8EB782D}"/>
+    <hyperlink ref="R66" r:id="rId21" xr:uid="{5F0EB864-8594-40CD-A4CE-D2F32BC318DF}"/>
+    <hyperlink ref="R60" r:id="rId22" xr:uid="{F74DCF66-DE4A-4CD6-9326-62F58C8D0088}"/>
     <hyperlink ref="K12" r:id="rId23" xr:uid="{A49517BD-EE25-403D-8EAA-84E43D781FEB}"/>
     <hyperlink ref="J12" r:id="rId24" display="https://doi.org/10.1016/j.jhydrol.2022.127449" xr:uid="{8D3E252A-DBD2-45D2-897D-6F2D25B0714D}"/>
-    <hyperlink ref="R55" r:id="rId25" xr:uid="{C2C2BED0-6A13-4819-91BC-2F9C49F5489B}"/>
-    <hyperlink ref="R57" r:id="rId26" xr:uid="{B29AA9BF-EE4A-45A5-B36A-E4ACCB6B75EE}"/>
-    <hyperlink ref="R56" r:id="rId27" xr:uid="{9710E869-58A6-4F5F-A7E8-57CE38A208D7}"/>
+    <hyperlink ref="R56" r:id="rId25" xr:uid="{C2C2BED0-6A13-4819-91BC-2F9C49F5489B}"/>
+    <hyperlink ref="R58" r:id="rId26" xr:uid="{B29AA9BF-EE4A-45A5-B36A-E4ACCB6B75EE}"/>
+    <hyperlink ref="R57" r:id="rId27" xr:uid="{9710E869-58A6-4F5F-A7E8-57CE38A208D7}"/>
     <hyperlink ref="K11" r:id="rId28" xr:uid="{B79FF0E4-1AE9-46AE-8E9A-0F2A844277F7}"/>
     <hyperlink ref="K10" r:id="rId29" xr:uid="{2CFBDD80-2C8E-4C0C-BF45-FF5B99D9AF51}"/>
     <hyperlink ref="K8" r:id="rId30" xr:uid="{2A765B15-3B0B-4BAF-95AD-4FC851D8343D}"/>
